--- a/P&E/Xtras/Preparcial 1 (Stuff)/Pregunta5.xlsx
+++ b/P&E/Xtras/Preparcial 1 (Stuff)/Pregunta5.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\Xtras\Preparcial 1 (Stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF77DA7-E4A8-4953-82A6-4BDFF159D996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878956DB-D731-4AC1-AD30-9DB4F272719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19575" yWindow="2280" windowWidth="9180" windowHeight="12405" xr2:uid="{81828812-900A-479E-8714-9729CEAF1A42}"/>
+    <workbookView xWindow="19230" yWindow="1455" windowWidth="9180" windowHeight="12405" xr2:uid="{81828812-900A-479E-8714-9729CEAF1A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="dataset">Hoja1!$H$3:$H$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Combinación (no importa el orden)</t>
   </si>
@@ -84,13 +109,25 @@
   </si>
   <si>
     <t>fact2</t>
+  </si>
+  <si>
+    <t>PREGUNTA 6</t>
+  </si>
+  <si>
+    <t>promedio (media)</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>moda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +135,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,8 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,8 +201,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1289840" cy="681725"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -191,6 +244,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -277,7 +331,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -645,45 +699,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2B61BA-160A-4417-A5DF-07649875DAD1}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>(100/22)*G3</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="G3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(dataset)</f>
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="M3" t="b">
+        <f>ISODD(H3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIF(M3:M24,FALSE())</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F24" si="0">(100/22)*G4</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="1">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" ref="M4:M24" si="2">ISODD(H4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIF(M3:M24,TRUE())</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <f>MEDIAN(dataset)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>22.72727272727273</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7:K8">_xlfn.MODE.MULT(dataset)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(dataset,K7)</f>
+        <v>7</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(dataset,K8)</f>
+        <v>7</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -694,8 +890,23 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>31.81818181818182</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -703,8 +914,23 @@
         <f>FACT(2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -712,8 +938,23 @@
         <f>5-2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -721,8 +962,23 @@
         <f>FACT(3)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>45.45454545454546</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -730,8 +986,40 @@
         <f>B10*B12</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -739,14 +1027,78 @@
         <f>B9/B13</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>59.090909090909093</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>63.63636363636364</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>FACT(5)/FACT(2)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -754,8 +1106,23 @@
         <f>FACT(5)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>77.27272727272728</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -763,8 +1130,23 @@
         <f>FACT(3)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -772,9 +1154,79 @@
         <f>FACT(2)</f>
         <v>2</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>86.363636363636374</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>90.909090909090921</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>95.454545454545467</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:H24">
+    <sortCondition ref="H3:H24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>